--- a/public/men.xlsx
+++ b/public/men.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28860" windowHeight="6450"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28860" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Ліля</t>
   </si>
@@ -92,19 +92,47 @@
   </si>
   <si>
     <t>380994830669</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>parameter_1</t>
+  </si>
+  <si>
+    <t>parameter_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,8 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,123 +494,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="7" width="20.875" customWidth="1"/>
+    <col min="1" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
     </row>
